--- a/src/analysis_examples/circadb/results_jtk/cosinor_10579744_large_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10579744_large_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1742655072951937, 0.32204202082533234]</t>
+          <t>[0.17340921020937228, 0.32289831791115375]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.754865808922261e-07</v>
+        <v>8.019854278451533e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.754865808922261e-07</v>
+        <v>8.019854278451533e-07</v>
       </c>
       <c r="O2" t="n">
         <v>0.3836579616996545</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.32233061971187454, 0.4076792023026656]</t>
+          <t>[0.3222845146378186, 0.4077253073767215]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.863576125695545e-14</v>
+        <v>3.952393967665557e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>3.863576125695545e-14</v>
+        <v>3.952393967665557e-14</v>
       </c>
       <c r="W2" t="n">
         <v>26.28090090090207</v>
